--- a/biology/Zoologie/Anthenoides/Anthenoides.xlsx
+++ b/biology/Zoologie/Anthenoides/Anthenoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthenoides est un genre d'étoiles de mer qui appartient à la famille des Goniasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles aplaties munies de cinq bras triangulaires pointus aux aisselles larges, avec des pores respiratoires situés le long des rayons mais absents des surfaces interradiales. Les plaques marginales sont volumineuses et anguleuses, formant une marge bien marquée[2]. La plupart sont des étoiles de grandes profondeurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles aplaties munies de cinq bras triangulaires pointus aux aisselles larges, avec des pores respiratoires situés le long des rayons mais absents des surfaces interradiales. Les plaques marginales sont volumineuses et anguleuses, formant une marge bien marquée. La plupart sont des étoiles de grandes profondeurs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (5 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (5 novembre 2014) :
 Anthenoides cristatus (Sladen, 1889) -- Indo-Pacifique tropicl (la plus répandue)
 Anthenoides dubius H.L. Clark, 1938 (taxon douteux)
 Anthenoides epixanthus (Fisher, 1906) -- Pacifique nord du Japon à Hawaii
